--- a/CCA/input_output_split.xlsx
+++ b/CCA/input_output_split.xlsx
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
